--- a/data/trans_orig/DCD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>120012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99986</v>
+        <v>99705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141024</v>
+        <v>140133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1231346688429886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1025876776530412</v>
+        <v>0.1022984870534618</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1446929259390591</v>
+        <v>0.1437790337826571</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>304</v>
@@ -764,19 +764,19 @@
         <v>324253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>293741</v>
+        <v>293244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>355677</v>
+        <v>357961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2423784503417453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2195706604518657</v>
+        <v>0.2191994553876538</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2658673629043988</v>
+        <v>0.2675752407904042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>416</v>
@@ -785,19 +785,19 @@
         <v>444265</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>407707</v>
+        <v>409790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>482378</v>
+        <v>485003</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1921197882989258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1763103351592254</v>
+        <v>0.1772112426551789</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2086011152377215</v>
+        <v>0.2097363073377108</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>854631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>833619</v>
+        <v>834510</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>874657</v>
+        <v>874938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8768653311570114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8553070740609409</v>
+        <v>0.8562209662173429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8974123223469589</v>
+        <v>0.8977015129465382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>943</v>
@@ -835,19 +835,19 @@
         <v>1013544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>982120</v>
+        <v>979836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1044056</v>
+        <v>1044553</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7576215496582547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7341326370956013</v>
+        <v>0.7324247592095958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7804293395481344</v>
+        <v>0.7808005446123463</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1739</v>
@@ -856,19 +856,19 @@
         <v>1868175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1830062</v>
+        <v>1827437</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1904733</v>
+        <v>1902650</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8078802117010743</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7913988847622784</v>
+        <v>0.790263692662289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8236896648407743</v>
+        <v>0.8227887573448208</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>96430</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76304</v>
+        <v>78292</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>119350</v>
+        <v>116485</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04909986633107305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03885236450694227</v>
+        <v>0.039864263781217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06077029603021031</v>
+        <v>0.05931157834172856</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>193</v>
@@ -981,19 +981,19 @@
         <v>211411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>186181</v>
+        <v>182291</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>240682</v>
+        <v>240283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1202700810722765</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1059170668281527</v>
+        <v>0.1037037944784297</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1369220964764183</v>
+        <v>0.1366951227976152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>282</v>
@@ -1002,19 +1002,19 @@
         <v>307841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>275165</v>
+        <v>275355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>345183</v>
+        <v>348044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08271385286789863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07393397527379755</v>
+        <v>0.07398516578954842</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09274714748518342</v>
+        <v>0.09351601692536098</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1867527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1844607</v>
+        <v>1847472</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1887653</v>
+        <v>1885665</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.950900133668927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9392297039697896</v>
+        <v>0.9406884216582714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9611476354930577</v>
+        <v>0.960135736218783</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1442</v>
@@ -1052,19 +1052,19 @@
         <v>1546392</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1517121</v>
+        <v>1517520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1571622</v>
+        <v>1575512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8797299189277236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8630779035235816</v>
+        <v>0.8633048772023849</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8940829331718473</v>
+        <v>0.8962962055215704</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3209</v>
@@ -1073,19 +1073,19 @@
         <v>3413919</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3376577</v>
+        <v>3373716</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3446595</v>
+        <v>3446405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9172861471321013</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9072528525148167</v>
+        <v>0.9064839830746391</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9260660247262025</v>
+        <v>0.9260148342104516</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>11101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5779</v>
+        <v>5156</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19785</v>
+        <v>20324</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02306990861436062</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01200944777915594</v>
+        <v>0.0107155670969131</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04111818959618702</v>
+        <v>0.04223685390370559</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1198,19 +1198,19 @@
         <v>44569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32871</v>
+        <v>31901</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60883</v>
+        <v>59603</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09717934070346897</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07167128903692828</v>
+        <v>0.06955703554378825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1327488236127235</v>
+        <v>0.1299587510550296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -1219,19 +1219,19 @@
         <v>55670</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40634</v>
+        <v>41999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72358</v>
+        <v>74805</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05923551454944965</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0432367196421788</v>
+        <v>0.04468881192390643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07699226248891405</v>
+        <v>0.07959555853239296</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>470080</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>461396</v>
+        <v>460857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>475402</v>
+        <v>476025</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9769300913856394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9588818104038129</v>
+        <v>0.9577631460962942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9879905522208439</v>
+        <v>0.9892844329030868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>373</v>
@@ -1269,19 +1269,19 @@
         <v>414062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>397748</v>
+        <v>399028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>425760</v>
+        <v>426730</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.902820659296531</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8672511763872769</v>
+        <v>0.8700412489449711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9283287109630719</v>
+        <v>0.9304429644562123</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>801</v>
@@ -1290,19 +1290,19 @@
         <v>884143</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>867455</v>
+        <v>865008</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>899179</v>
+        <v>897814</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9407644854505504</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9230077375110853</v>
+        <v>0.920404441467607</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9567632803578208</v>
+        <v>0.9553111880760934</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>227543</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>198728</v>
+        <v>197527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>258674</v>
+        <v>258062</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06653734420084557</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05811122522740534</v>
+        <v>0.05776000527849151</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07564052288606096</v>
+        <v>0.0754615195966493</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>536</v>
@@ -1415,19 +1415,19 @@
         <v>580234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>536149</v>
+        <v>530865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>624273</v>
+        <v>626030</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1632515456525773</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1508480110516622</v>
+        <v>0.1493614781030236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1756421759379737</v>
+        <v>0.176136546226324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>747</v>
@@ -1436,19 +1436,19 @@
         <v>807777</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>754214</v>
+        <v>752812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>863865</v>
+        <v>863511</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1158266969193285</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1081463057072211</v>
+        <v>0.1079453169345562</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1238691097344872</v>
+        <v>0.123818356126073</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>3192239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3161108</v>
+        <v>3161720</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3221054</v>
+        <v>3222255</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9334626557991544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9243594771139401</v>
+        <v>0.9245384804033508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9418887747725948</v>
+        <v>0.9422399947215087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2758</v>
@@ -1486,19 +1486,19 @@
         <v>2973996</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2929957</v>
+        <v>2928200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3018081</v>
+        <v>3023365</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8367484543474227</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8243578240620263</v>
+        <v>0.8238634537736761</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8491519889483379</v>
+        <v>0.8506385218969764</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5749</v>
@@ -1507,19 +1507,19 @@
         <v>6166235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6110147</v>
+        <v>6110501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6219798</v>
+        <v>6221200</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8841733030806714</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8761308902655124</v>
+        <v>0.8761816438739271</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8918536942927784</v>
+        <v>0.8920546830654439</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>93079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76599</v>
+        <v>77913</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111891</v>
+        <v>111235</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1233907836672061</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1015429816669138</v>
+        <v>0.1032849928589715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1483284822968677</v>
+        <v>0.147458544099061</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -1871,19 +1871,19 @@
         <v>212434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>183032</v>
+        <v>184256</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241919</v>
+        <v>241939</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2135746201634523</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1840147703010222</v>
+        <v>0.1852452395130446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2432173041493167</v>
+        <v>0.2432374145953131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>281</v>
@@ -1892,19 +1892,19 @@
         <v>305514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>274223</v>
+        <v>271781</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>338326</v>
+        <v>338922</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1746783273563489</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1567880083205906</v>
+        <v>0.1553914959539608</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1934389874145533</v>
+        <v>0.1937797777991011</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>661268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>642456</v>
+        <v>643112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>677748</v>
+        <v>676434</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8766092163327939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8516715177031321</v>
+        <v>0.852541455900939</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8984570183330861</v>
+        <v>0.8967150071410285</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>707</v>
@@ -1942,19 +1942,19 @@
         <v>782226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>752741</v>
+        <v>752721</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>811628</v>
+        <v>810404</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7864253798365477</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7567826958506834</v>
+        <v>0.7567625854046869</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8159852296989778</v>
+        <v>0.8147547604869554</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1373</v>
@@ -1963,19 +1963,19 @@
         <v>1443493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1410681</v>
+        <v>1410085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1474784</v>
+        <v>1477226</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8253216726436511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8065610125854463</v>
+        <v>0.8062202222008988</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8432119916794092</v>
+        <v>0.8446085040460392</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>109507</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90039</v>
+        <v>89510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133811</v>
+        <v>132510</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05273941448792477</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04336313966010573</v>
+        <v>0.043108809096043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06444398792558755</v>
+        <v>0.06381781912597011</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>193</v>
@@ -2088,19 +2088,19 @@
         <v>209636</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>182087</v>
+        <v>179704</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>240475</v>
+        <v>238641</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1054349390891239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09157948304119416</v>
+        <v>0.09038091511656304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1209448887353102</v>
+        <v>0.1200225006798</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>293</v>
@@ -2109,19 +2109,19 @@
         <v>319144</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>285580</v>
+        <v>285635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>356184</v>
+        <v>354234</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07851620019173072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07025893818403776</v>
+        <v>0.07027240675345924</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08762897524681329</v>
+        <v>0.08714909283484909</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>1966878</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1942574</v>
+        <v>1943875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1986346</v>
+        <v>1986875</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9472605855120753</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9355560120744124</v>
+        <v>0.9361821808740299</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9566368603398943</v>
+        <v>0.956891190903957</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1715</v>
@@ -2159,19 +2159,19 @@
         <v>1778664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1747825</v>
+        <v>1749659</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1806213</v>
+        <v>1808596</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8945650609108761</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8790551112646898</v>
+        <v>0.8799774993202001</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9084205169588059</v>
+        <v>0.9096190848834372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3567</v>
@@ -2180,19 +2180,19 @@
         <v>3745541</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3708501</v>
+        <v>3710451</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3779105</v>
+        <v>3779050</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9214837998082693</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9123710247531867</v>
+        <v>0.9128509071651509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9297410618159623</v>
+        <v>0.9297275932465409</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>25439</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16326</v>
+        <v>16402</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37496</v>
+        <v>37855</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04651681988929217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02985217772856227</v>
+        <v>0.02999098222723316</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06856304259663686</v>
+        <v>0.06922005613429126</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -2305,19 +2305,19 @@
         <v>39394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27790</v>
+        <v>28379</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53865</v>
+        <v>53439</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07173787373325506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05060723585565836</v>
+        <v>0.05167873571602755</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0980898899051199</v>
+        <v>0.09731459669772169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -2326,19 +2326,19 @@
         <v>64834</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50444</v>
+        <v>50200</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81702</v>
+        <v>82787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05915328225333889</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0460248440970666</v>
+        <v>0.04580155874605765</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07454390229718498</v>
+        <v>0.07553344557634276</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>521447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>509390</v>
+        <v>509031</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>530560</v>
+        <v>530484</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9534831801107079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9314369574033631</v>
+        <v>0.9307799438657086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9701478222714377</v>
+        <v>0.9700090177727668</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>489</v>
@@ -2376,19 +2376,19 @@
         <v>509746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>495275</v>
+        <v>495701</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>521350</v>
+        <v>520761</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.928262126266745</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9019101100948801</v>
+        <v>0.9026854033022786</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9493927641443416</v>
+        <v>0.9483212642839727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>969</v>
@@ -2397,19 +2397,19 @@
         <v>1031193</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1014325</v>
+        <v>1013240</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1045583</v>
+        <v>1045827</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9408467177466611</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9254560977028151</v>
+        <v>0.9244665544236572</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9539751559029334</v>
+        <v>0.9541984412539424</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>228026</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>200000</v>
+        <v>200194</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261667</v>
+        <v>260005</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0675109437922949</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0592134737556146</v>
+        <v>0.059270655512354</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07747093668980061</v>
+        <v>0.07697895332033239</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>415</v>
@@ -2522,19 +2522,19 @@
         <v>461465</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>419818</v>
+        <v>421311</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>501939</v>
+        <v>507285</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1306487783943978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.118857801468723</v>
+        <v>0.1192805044900602</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1421076796633413</v>
+        <v>0.1436214446620316</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>632</v>
@@ -2543,19 +2543,19 @@
         <v>689491</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>638443</v>
+        <v>637841</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>738950</v>
+        <v>739631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09978565682525857</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09239786493808524</v>
+        <v>0.09231075614770048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1069435515834269</v>
+        <v>0.1070421141981495</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>3149592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3115951</v>
+        <v>3117613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3177618</v>
+        <v>3177424</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9324890562077051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.922529063310199</v>
+        <v>0.9230210466796676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9407865262443854</v>
+        <v>0.940729344487646</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2911</v>
@@ -2593,19 +2593,19 @@
         <v>3070635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3030161</v>
+        <v>3024815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3112282</v>
+        <v>3110789</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8693512216056022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8578923203366589</v>
+        <v>0.8563785553379685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.881142198531277</v>
+        <v>0.88071949550994</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5909</v>
@@ -2614,19 +2614,19 @@
         <v>6220227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6170768</v>
+        <v>6170087</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6271275</v>
+        <v>6271877</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9002143431747415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8930564484165731</v>
+        <v>0.8929578858018501</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9076021350619145</v>
+        <v>0.9076892438522993</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>143299</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124957</v>
+        <v>123583</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>161618</v>
+        <v>162773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2476946651187039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2159908157183908</v>
+        <v>0.2136164444463109</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2793608050848994</v>
+        <v>0.281357026161484</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>642</v>
@@ -2978,19 +2978,19 @@
         <v>355380</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>333526</v>
+        <v>330286</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>376199</v>
+        <v>377245</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4323155983567055</v>
+        <v>0.4323155983567056</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4057307498235303</v>
+        <v>0.401789023576711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4576414397931804</v>
+        <v>0.4589148618713552</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>838</v>
@@ -2999,19 +2999,19 @@
         <v>498678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>469083</v>
+        <v>467115</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>530191</v>
+        <v>529425</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3560546132927493</v>
+        <v>0.3560546132927492</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.334923699808486</v>
+        <v>0.3335183223019643</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3785548406692225</v>
+        <v>0.3780077363046916</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>435230</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>416911</v>
+        <v>415756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453572</v>
+        <v>454946</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7523053348812963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7206391949150999</v>
+        <v>0.7186429738385162</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.784009184281609</v>
+        <v>0.7863835555536892</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>785</v>
@@ -3049,19 +3049,19 @@
         <v>466658</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>445839</v>
+        <v>444793</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>488512</v>
+        <v>491752</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5676844016432945</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5423585602068198</v>
+        <v>0.5410851381286456</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5942692501764697</v>
+        <v>0.5982109764232891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1280</v>
@@ -3070,19 +3070,19 @@
         <v>901889</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>870376</v>
+        <v>871142</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>931484</v>
+        <v>933452</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6439453867072508</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6214451593307775</v>
+        <v>0.6219922636953084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.665076300191514</v>
+        <v>0.6664816776980358</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>255304</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>228035</v>
+        <v>226494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>289028</v>
+        <v>285208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1144570147317453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1022318651007959</v>
+        <v>0.1015408410893351</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1295762321617319</v>
+        <v>0.127863715292001</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>704</v>
@@ -3195,19 +3195,19 @@
         <v>492761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>461524</v>
+        <v>456033</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>533135</v>
+        <v>531143</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2269333823626587</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2125473904052509</v>
+        <v>0.2100189212971036</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2455266120880089</v>
+        <v>0.2446096740962705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>973</v>
@@ -3216,19 +3216,19 @@
         <v>748065</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>697060</v>
+        <v>695383</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>793324</v>
+        <v>793185</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1699392053260458</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1583521494300384</v>
+        <v>0.1579712146526902</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1802207134565881</v>
+        <v>0.1801891930052817</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>1975262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1941538</v>
+        <v>1945358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2002531</v>
+        <v>2004072</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8855429852682547</v>
+        <v>0.8855429852682548</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8704237678382684</v>
+        <v>0.8721362847079991</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8977681348992042</v>
+        <v>0.8984591589106647</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2217</v>
@@ -3266,19 +3266,19 @@
         <v>1678631</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1638257</v>
+        <v>1640249</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1709868</v>
+        <v>1715359</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7730666176373413</v>
+        <v>0.7730666176373412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7544733879119914</v>
+        <v>0.7553903259037296</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7874526095947491</v>
+        <v>0.7899810787028965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3940</v>
@@ -3287,19 +3287,19 @@
         <v>3653894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3608635</v>
+        <v>3608774</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3704899</v>
+        <v>3706576</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8300607946739542</v>
+        <v>0.8300607946739543</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8197792865434121</v>
+        <v>0.8198108069947182</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8416478505699614</v>
+        <v>0.8420287853473097</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>56308</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43161</v>
+        <v>43610</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72902</v>
+        <v>74053</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07913003360670032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06065452716314187</v>
+        <v>0.06128514506632016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1024504516376761</v>
+        <v>0.1040675799309548</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>200</v>
@@ -3412,19 +3412,19 @@
         <v>148377</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>130046</v>
+        <v>129038</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169844</v>
+        <v>167190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2019072281257593</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1769624368121421</v>
+        <v>0.1755916251766935</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.231118965882886</v>
+        <v>0.2275072290291633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>259</v>
@@ -3433,19 +3433,19 @@
         <v>204685</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>180270</v>
+        <v>181355</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>229783</v>
+        <v>230053</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1415070795637032</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1246278549520442</v>
+        <v>0.125378349766727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1588582474452372</v>
+        <v>0.159045000549819</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>655279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>638685</v>
+        <v>637534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668426</v>
+        <v>667977</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9208699663932997</v>
+        <v>0.9208699663932995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8975495483623239</v>
+        <v>0.8959324200690453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9393454728368583</v>
+        <v>0.9387148549336798</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>804</v>
@@ -3483,19 +3483,19 @@
         <v>586500</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>565033</v>
+        <v>567687</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>604831</v>
+        <v>605839</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7980927718742405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7688810341171141</v>
+        <v>0.7724927709708366</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8230375631878578</v>
+        <v>0.8244083748233063</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1426</v>
@@ -3504,19 +3504,19 @@
         <v>1241779</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1216681</v>
+        <v>1216411</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1266194</v>
+        <v>1265109</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8584929204362969</v>
+        <v>0.8584929204362968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8411417525547628</v>
+        <v>0.8409549994501812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8753721450479559</v>
+        <v>0.8746216502332734</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>454911</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>415625</v>
+        <v>417062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>495496</v>
+        <v>497202</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.129210879566817</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1180523890702987</v>
+        <v>0.1184605765728294</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1407386459114835</v>
+        <v>0.1412230868103143</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1546</v>
@@ -3629,19 +3629,19 @@
         <v>996518</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>949067</v>
+        <v>947001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1048921</v>
+        <v>1042454</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2672843500596702</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2545571960112541</v>
+        <v>0.254003075379078</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2813396936613836</v>
+        <v>0.279605144415026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2070</v>
@@ -3650,19 +3650,19 @@
         <v>1451429</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1394162</v>
+        <v>1395390</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1521864</v>
+        <v>1519730</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2002249545700376</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1923250357195304</v>
+        <v>0.1924943979168735</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2099414859978357</v>
+        <v>0.2096471237467922</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>3065772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3025187</v>
+        <v>3023481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3105058</v>
+        <v>3103621</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8707891204331829</v>
+        <v>0.870789120433183</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8592613540885166</v>
+        <v>0.8587769131896854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8819476109297014</v>
+        <v>0.8815394234271705</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3806</v>
@@ -3700,19 +3700,19 @@
         <v>2731789</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2679386</v>
+        <v>2685853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2779240</v>
+        <v>2781306</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7327156499403298</v>
+        <v>0.7327156499403299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7186603063386163</v>
+        <v>0.720394855584974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.745442803988746</v>
+        <v>0.745996924620922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6646</v>
@@ -3721,19 +3721,19 @@
         <v>5797561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5727126</v>
+        <v>5729260</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5854828</v>
+        <v>5853600</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7997750454299623</v>
+        <v>0.7997750454299626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7900585140021643</v>
+        <v>0.7903528762532078</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8076749642804696</v>
+        <v>0.8075056020831265</v>
       </c>
     </row>
     <row r="15">
